--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H2">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J2">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>1.090131322814889</v>
+        <v>3.518288142754667</v>
       </c>
       <c r="R2">
-        <v>9.811181905333999</v>
+        <v>31.664593284792</v>
       </c>
       <c r="S2">
-        <v>0.002498362923072798</v>
+        <v>0.00977397415159721</v>
       </c>
       <c r="T2">
-        <v>0.002498362923072799</v>
+        <v>0.00977397415159721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H3">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J3">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
-        <v>0.04448676502422221</v>
+        <v>0.3368699602695555</v>
       </c>
       <c r="R3">
-        <v>0.400380885218</v>
+        <v>3.031829642426</v>
       </c>
       <c r="S3">
-        <v>0.0001019547663459272</v>
+        <v>0.0009358409972488169</v>
       </c>
       <c r="T3">
-        <v>0.0001019547663459272</v>
+        <v>0.0009358409972488169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.575111333333333</v>
+        <v>19.49967933333333</v>
       </c>
       <c r="H4">
-        <v>7.725333999999999</v>
+        <v>58.499038</v>
       </c>
       <c r="I4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="J4">
-        <v>0.002862529524196255</v>
+        <v>0.01453409262904611</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>0.1144130549104445</v>
+        <v>1.376605862109111</v>
       </c>
       <c r="R4">
-        <v>1.029717494194</v>
+        <v>12.389452758982</v>
       </c>
       <c r="S4">
-        <v>0.0002622118347775289</v>
+        <v>0.003824277480200083</v>
       </c>
       <c r="T4">
-        <v>0.0002622118347775289</v>
+        <v>0.003824277480200083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I5">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J5">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N5">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q5">
-        <v>160.2481656862253</v>
+        <v>68.29897623332799</v>
       </c>
       <c r="R5">
-        <v>1442.233491176028</v>
+        <v>614.690786099952</v>
       </c>
       <c r="S5">
-        <v>0.3672567398642442</v>
+        <v>0.1897378501132188</v>
       </c>
       <c r="T5">
-        <v>0.3672567398642442</v>
+        <v>0.1897378501132188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1135.616028</v>
       </c>
       <c r="I6">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J6">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.051827</v>
       </c>
       <c r="O6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q6">
         <v>6.539507987017332</v>
@@ -827,10 +827,10 @@
         <v>58.855571883156</v>
       </c>
       <c r="S6">
-        <v>0.01498724414937011</v>
+        <v>0.01816706859581623</v>
       </c>
       <c r="T6">
-        <v>0.01498724414937011</v>
+        <v>0.01816706859581623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1135.616028</v>
       </c>
       <c r="I7">
-        <v>0.4207888498154877</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="J7">
-        <v>0.4207888498154878</v>
+        <v>0.2821439310161206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N7">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q7">
-        <v>16.81859955423867</v>
+        <v>26.72344255045466</v>
       </c>
       <c r="R7">
-        <v>151.367395988148</v>
+        <v>240.510982954092</v>
       </c>
       <c r="S7">
-        <v>0.03854486580187337</v>
+        <v>0.07423901230708556</v>
       </c>
       <c r="T7">
-        <v>0.03854486580187338</v>
+        <v>0.07423901230708557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H8">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J8">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N8">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q8">
-        <v>118.8955951096162</v>
+        <v>86.88667595030535</v>
       </c>
       <c r="R8">
-        <v>1070.060355986546</v>
+        <v>781.9800835527481</v>
       </c>
       <c r="S8">
-        <v>0.2724849202310103</v>
+        <v>0.2413753764328065</v>
       </c>
       <c r="T8">
-        <v>0.2724849202310103</v>
+        <v>0.2413753764328065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H9">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J9">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.051827</v>
       </c>
       <c r="O9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q9">
-        <v>4.851966264393555</v>
+        <v>8.319247852285445</v>
       </c>
       <c r="R9">
-        <v>43.667696379542</v>
+        <v>74.873230670569</v>
       </c>
       <c r="S9">
-        <v>0.01111973609533581</v>
+        <v>0.0231112717804019</v>
       </c>
       <c r="T9">
-        <v>0.01111973609533581</v>
+        <v>0.0231112717804019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.8555153333334</v>
+        <v>481.5587156666667</v>
       </c>
       <c r="H10">
-        <v>842.566546</v>
+        <v>1444.676147</v>
       </c>
       <c r="I10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="J10">
-        <v>0.312202891684044</v>
+        <v>0.3589299526510408</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N10">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P10">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q10">
-        <v>12.47850416476511</v>
+        <v>33.99627961077589</v>
       </c>
       <c r="R10">
-        <v>112.306537482886</v>
+        <v>305.966516496983</v>
       </c>
       <c r="S10">
-        <v>0.02859823535769784</v>
+        <v>0.09444330443783239</v>
       </c>
       <c r="T10">
-        <v>0.02859823535769784</v>
+        <v>0.09444330443783239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H11">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I11">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J11">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N11">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P11">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q11">
-        <v>2.811964811921555</v>
+        <v>1.968469299572</v>
       </c>
       <c r="R11">
-        <v>25.307683307294</v>
+        <v>17.716223696148</v>
       </c>
       <c r="S11">
-        <v>0.00644446084619397</v>
+        <v>0.005468502655716393</v>
       </c>
       <c r="T11">
-        <v>0.006444460846193971</v>
+        <v>0.005468502655716393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H12">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I12">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J12">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.051827</v>
       </c>
       <c r="O12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P12">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q12">
-        <v>0.1147524295708889</v>
+        <v>0.1884775060576666</v>
       </c>
       <c r="R12">
-        <v>1.032771866138</v>
+        <v>1.696297554519</v>
       </c>
       <c r="S12">
-        <v>0.0002629896136110876</v>
+        <v>0.0005235996023119352</v>
       </c>
       <c r="T12">
-        <v>0.0002629896136110877</v>
+        <v>0.0005235996023119352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.642431333333334</v>
+        <v>10.909999</v>
       </c>
       <c r="H13">
-        <v>19.927294</v>
+        <v>32.729997</v>
       </c>
       <c r="I13">
-        <v>0.007383818927743304</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="J13">
-        <v>0.007383818927743305</v>
+        <v>0.008131771468556478</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N13">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P13">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q13">
-        <v>0.2951254382837779</v>
+        <v>0.7702059260703332</v>
       </c>
       <c r="R13">
-        <v>2.656128944554</v>
+        <v>6.931853334633</v>
       </c>
       <c r="S13">
-        <v>0.0006763684679382462</v>
+        <v>0.00213966921052815</v>
       </c>
       <c r="T13">
-        <v>0.0006763684679382463</v>
+        <v>0.00213966921052815</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H14">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J14">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N14">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P14">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q14">
-        <v>55.91366487758422</v>
+        <v>17.76942962792667</v>
       </c>
       <c r="R14">
-        <v>503.222983898258</v>
+        <v>159.92486665134</v>
       </c>
       <c r="S14">
-        <v>0.1281429349838018</v>
+        <v>0.04936433254611106</v>
       </c>
       <c r="T14">
-        <v>0.1281429349838019</v>
+        <v>0.04936433254611108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H15">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J15">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.051827</v>
       </c>
       <c r="O15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P15">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q15">
-        <v>2.281760021929555</v>
+        <v>1.701391929793889</v>
       </c>
       <c r="R15">
-        <v>20.535840197366</v>
+        <v>15.312527368145</v>
       </c>
       <c r="S15">
-        <v>0.005229337529187377</v>
+        <v>0.004726548841028551</v>
       </c>
       <c r="T15">
-        <v>0.005229337529187379</v>
+        <v>0.004726548841028552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.0794193333333</v>
+        <v>98.48487833333333</v>
       </c>
       <c r="H16">
-        <v>396.238258</v>
+        <v>295.454635</v>
       </c>
       <c r="I16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129181</v>
       </c>
       <c r="J16">
-        <v>0.1468213169995101</v>
+        <v>0.07340573759129182</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N16">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P16">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q16">
-        <v>5.868332627453112</v>
+        <v>6.952671299112777</v>
       </c>
       <c r="R16">
-        <v>52.81499364707801</v>
+        <v>62.574041692015</v>
       </c>
       <c r="S16">
-        <v>0.01344904448652083</v>
+        <v>0.0193148562041522</v>
       </c>
       <c r="T16">
-        <v>0.01344904448652083</v>
+        <v>0.0193148562041522</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H17">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J17">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N17">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P17">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q17">
-        <v>41.86845344948244</v>
+        <v>63.629560217136</v>
       </c>
       <c r="R17">
-        <v>376.8160810453419</v>
+        <v>572.6660419542239</v>
       </c>
       <c r="S17">
-        <v>0.095954119981147</v>
+        <v>0.1767659872090107</v>
       </c>
       <c r="T17">
-        <v>0.09595411998114702</v>
+        <v>0.1767659872090107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H18">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J18">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.051827</v>
       </c>
       <c r="O18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P18">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q18">
-        <v>1.708594195537111</v>
+        <v>6.092419538308</v>
       </c>
       <c r="R18">
-        <v>15.377347759834</v>
+        <v>54.831775844772</v>
       </c>
       <c r="S18">
-        <v>0.003915756110635272</v>
+        <v>0.01692503532171909</v>
       </c>
       <c r="T18">
-        <v>0.003915756110635272</v>
+        <v>0.01692503532171909</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.90178066666665</v>
+        <v>352.659012</v>
       </c>
       <c r="H19">
-        <v>296.705342</v>
+        <v>1057.977036</v>
       </c>
       <c r="I19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="J19">
-        <v>0.1099405930490186</v>
+        <v>0.2628545146439442</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N19">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P19">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q19">
-        <v>4.394239082280222</v>
+        <v>24.896433164156</v>
       </c>
       <c r="R19">
-        <v>39.548151740522</v>
+        <v>224.067898477404</v>
       </c>
       <c r="S19">
-        <v>0.01007071695723631</v>
+        <v>0.06916349211321444</v>
       </c>
       <c r="T19">
-        <v>0.01007071695723631</v>
+        <v>0.06916349211321444</v>
       </c>
     </row>
   </sheetData>
